--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.3389513440306617</v>
+        <v>-0.3556784418185893</v>
       </c>
       <c r="D2">
-        <v>0.7346887697371327</v>
+        <v>0.7254691660115968</v>
       </c>
       <c r="E2">
         <v>0.5752693965138831</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.3605585554785315</v>
+        <v>0.3137912283741482</v>
       </c>
       <c r="D3">
-        <v>0.718474830299022</v>
+        <v>0.7566355952458692</v>
       </c>
       <c r="E3">
         <v>0.5752693965138831</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.921799626972853</v>
+        <v>2.536608715189334</v>
       </c>
       <c r="D4">
-        <v>0.003526669117308812</v>
+        <v>0.01879816877881169</v>
       </c>
       <c r="E4">
         <v>0.5752693965138831</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.345528790513707</v>
+        <v>2.531968556851101</v>
       </c>
       <c r="D5">
-        <v>0.01911595493442397</v>
+        <v>0.01899059516874302</v>
       </c>
       <c r="E5">
         <v>0.5752693965138831</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5797908747432073</v>
+        <v>0.5537539434153976</v>
       </c>
       <c r="D6">
-        <v>0.562133441266623</v>
+        <v>0.5853321147798374</v>
       </c>
       <c r="E6">
         <v>0.5815962271063567</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.890034893560833</v>
+        <v>3.158671669113759</v>
       </c>
       <c r="D7">
-        <v>0.003901463732695731</v>
+        <v>0.00455395711800044</v>
       </c>
       <c r="E7">
         <v>0.5815962271063567</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.352197260142656</v>
+        <v>3.029454063033417</v>
       </c>
       <c r="D8">
-        <v>0.01877779562575022</v>
+        <v>0.006158931445839011</v>
       </c>
       <c r="E8">
         <v>0.5815962271063567</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.419894704097847</v>
+        <v>2.089208695614153</v>
       </c>
       <c r="D9">
-        <v>0.0156305904869789</v>
+        <v>0.04846939818333618</v>
       </c>
       <c r="E9">
         <v>0.5694023743057334</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.068864155870903</v>
+        <v>2.668123875305132</v>
       </c>
       <c r="D10">
-        <v>0.03871157379007029</v>
+        <v>0.01404640878379193</v>
       </c>
       <c r="E10">
         <v>0.5694023743057334</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.3832453541430787</v>
+        <v>-0.4911625614382165</v>
       </c>
       <c r="D11">
-        <v>0.7015863695342861</v>
+        <v>0.6281755534610189</v>
       </c>
       <c r="E11">
         <v>0.528135206340587</v>
